--- a/QC/Sure/Sure Automation/Documents/Order Management/SureSeflcare Orders/SureSelfcareOrderPlans.xlsx
+++ b/QC/Sure/Sure Automation/Documents/Order Management/SureSeflcare Orders/SureSelfcareOrderPlans.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="237">
   <si>
     <t>TestCaseNo</t>
   </si>
@@ -422,19 +422,19 @@
     <t>DA-01</t>
   </si>
   <si>
-    <t>btnsave</t>
-  </si>
-  <si>
-    <t>btnpricing</t>
-  </si>
-  <si>
-    <t>effectivefrom</t>
+    <t>uxPricePlanCtrl_btnsave</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_btnpricing</t>
+  </si>
+  <si>
+    <t>uxPriceDetailsCtrl_effectivefrom</t>
   </si>
   <si>
     <t>$DTF-0$</t>
   </si>
   <si>
-    <t>priceplanchargesgrid</t>
+    <t>uxPriceDetailsCtrl_priceplanchargesgrid</t>
   </si>
   <si>
     <t>$1.BYINDEX$</t>
@@ -449,7 +449,10 @@
     <t>$6.BYID.dcrule.No Disconnection Credit$</t>
   </si>
   <si>
-    <t>priceplanpricinggrid</t>
+    <t>uxPriceDetailsCtrl_btnpricing</t>
+  </si>
+  <si>
+    <t>uxPriceDetailsCtrl_priceplanpricinggrid</t>
   </si>
   <si>
     <t>$5.BYTEXT.NONE.One Month$</t>
@@ -464,6 +467,9 @@
     <t>submitButton</t>
   </si>
   <si>
+    <t>uxPriceDetailsCtrl_btnsave</t>
+  </si>
+  <si>
     <t>DA-02</t>
   </si>
   <si>
@@ -476,7 +482,7 @@
     <t>check qualifiers</t>
   </si>
   <si>
-    <t>contractvaliditygrd</t>
+    <t>uxPricePlanCtrl_contractvaliditygrd</t>
   </si>
   <si>
     <t>$0.BYINDEX$</t>
@@ -491,7 +497,7 @@
     <t>$0.BYTYPE.CHECKBOX.YES$</t>
   </si>
   <si>
-    <t>ddlcontractterm</t>
+    <t>uxPriceDetailsCtrl_ddlcontractterm</t>
   </si>
   <si>
     <t>One Month</t>
@@ -500,7 +506,7 @@
     <t>DA-05</t>
   </si>
   <si>
-    <t>chkStartup</t>
+    <t>uxPricePlanCtrl_chkStartup</t>
   </si>
   <si>
     <t>DA-06</t>
@@ -584,7 +590,7 @@
     <t>sale start date</t>
   </si>
   <si>
-    <t>startDate</t>
+    <t>uxPricePlanCtrl_startDate</t>
   </si>
   <si>
     <t>01-11-2019</t>
@@ -599,31 +605,31 @@
     <t>Page control ID's should be specified</t>
   </si>
   <si>
-    <t>plancode</t>
-  </si>
-  <si>
-    <t>planname</t>
-  </si>
-  <si>
-    <t>priceplanflexattr__flexattr_PPD</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>bundle</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>priceplanflexattr__flexattr_PP1</t>
-  </si>
-  <si>
-    <t>cmbPlanType</t>
-  </si>
-  <si>
-    <t>contractperiod</t>
+    <t>uxPricePlanCtrl_plancode</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_planname</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_priceplanflexattr__flexattr_PPD</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_status</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_bundle</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_category</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_priceplanflexattr__flexattr_PP1</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_cmbPlanType</t>
+  </si>
+  <si>
+    <t>uxPricePlanCtrl_contractperiod</t>
   </si>
   <si>
     <t>ControlNames</t>
@@ -801,11 +807,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -841,8 +848,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,6 +885,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -871,22 +932,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -901,65 +947,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -979,6 +971,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -987,6 +987,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,6 +1015,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1020,19 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,151 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,21 +1206,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1237,25 +1229,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1276,6 +1259,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1291,6 +1283,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1302,149 +1309,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1468,10 +1475,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1483,12 +1490,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1886,8 +1893,8 @@
   <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2466,8 +2473,8 @@
   <sheetPr/>
   <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="C339" sqref="C339"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="E337" sqref="E337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2476,7 +2483,7 @@
     <col min="2" max="2" width="9.71428571428571" customWidth="1"/>
     <col min="3" max="3" width="44.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="31.2857142857143" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="37.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="38.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="57.7142857142857" customWidth="1"/>
     <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
@@ -2755,7 +2762,7 @@
         <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2769,13 +2776,13 @@
         <v>103</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2789,13 +2796,13 @@
         <v>103</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2806,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="7:7">
@@ -2827,7 +2834,7 @@
       </c>
       <c r="D31" s="3"/>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:5">
@@ -2953,7 +2960,7 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:7">
@@ -2968,13 +2975,13 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:7">
@@ -2989,13 +2996,13 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:5">
@@ -3006,11 +3013,11 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:6">
@@ -3025,7 +3032,7 @@
       </c>
       <c r="D43" s="3"/>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:5">
@@ -3151,7 +3158,7 @@
       </c>
       <c r="D50" s="3"/>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:7">
@@ -3166,13 +3173,13 @@
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:7">
@@ -3187,13 +3194,13 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:5">
@@ -3204,11 +3211,11 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" customFormat="1" spans="1:6">
@@ -3223,7 +3230,7 @@
       </c>
       <c r="D56" s="3"/>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" customFormat="1" spans="1:7">
@@ -3237,16 +3244,16 @@
         <v>103</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="1" spans="1:7">
@@ -3260,16 +3267,16 @@
         <v>103</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" customFormat="1" spans="1:5">
@@ -3313,11 +3320,11 @@
         <v>86</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="6" t="s">
-        <v>133</v>
+      <c r="E61" t="s">
+        <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:6">
@@ -3412,7 +3419,7 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" customFormat="1" spans="1:7">
@@ -3427,13 +3434,13 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" customFormat="1" spans="1:7">
@@ -3448,13 +3455,13 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:5">
@@ -3465,11 +3472,11 @@
         <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" customFormat="1" spans="1:6">
@@ -3484,7 +3491,7 @@
       </c>
       <c r="D72" s="3"/>
       <c r="F72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" customFormat="1" spans="1:7">
@@ -3498,16 +3505,16 @@
         <v>103</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" customFormat="1" spans="1:7">
@@ -3521,16 +3528,16 @@
         <v>103</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" customFormat="1" spans="1:5">
@@ -3545,7 +3552,7 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:5">
@@ -3670,7 +3677,7 @@
       </c>
       <c r="D82" s="3"/>
       <c r="E82" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" customFormat="1" spans="1:7">
@@ -3685,13 +3692,13 @@
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:7">
@@ -3706,13 +3713,13 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="1" spans="1:5">
@@ -3723,11 +3730,11 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" customFormat="1" spans="1:6">
@@ -3742,7 +3749,7 @@
       </c>
       <c r="D88" s="3"/>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:5">
@@ -3867,7 +3874,7 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" customFormat="1" spans="1:7">
@@ -3882,13 +3889,13 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F96" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:7">
@@ -3903,13 +3910,13 @@
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:5">
@@ -3920,11 +3927,11 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:6">
@@ -3939,7 +3946,7 @@
       </c>
       <c r="D100" s="3"/>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" customFormat="1" spans="1:5">
@@ -4064,7 +4071,7 @@
       </c>
       <c r="D107" s="3"/>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:7">
@@ -4079,13 +4086,13 @@
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" customFormat="1" spans="1:7">
@@ -4100,13 +4107,13 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F109" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:5">
@@ -4117,11 +4124,11 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="3:7">
@@ -4142,7 +4149,7 @@
       </c>
       <c r="D112" s="3"/>
       <c r="F112" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="1:5">
@@ -4267,7 +4274,7 @@
       </c>
       <c r="D119" s="3"/>
       <c r="E119" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:7">
@@ -4282,13 +4289,13 @@
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" customFormat="1" spans="1:7">
@@ -4303,13 +4310,13 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:5">
@@ -4320,11 +4327,11 @@
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" customFormat="1" spans="3:7">
@@ -4351,7 +4358,7 @@
       </c>
       <c r="D125" s="3"/>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" customFormat="1" spans="1:7">
@@ -4365,16 +4372,16 @@
         <v>103</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:7">
@@ -4388,16 +4395,16 @@
         <v>103</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" customFormat="1" spans="1:5">
@@ -4441,11 +4448,11 @@
         <v>86</v>
       </c>
       <c r="D130" s="3"/>
-      <c r="E130" s="6" t="s">
-        <v>133</v>
+      <c r="E130" t="s">
+        <v>135</v>
       </c>
       <c r="F130" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" customFormat="1" spans="1:6">
@@ -4540,7 +4547,7 @@
       </c>
       <c r="D135" s="3"/>
       <c r="E135" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:7">
@@ -4555,13 +4562,13 @@
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" customFormat="1" spans="1:7">
@@ -4576,13 +4583,13 @@
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:5">
@@ -4593,11 +4600,11 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" customFormat="1" spans="3:7">
@@ -4630,7 +4637,7 @@
       </c>
       <c r="D142" s="3"/>
       <c r="F142" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" customFormat="1" spans="1:7">
@@ -4644,16 +4651,16 @@
         <v>103</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" customFormat="1" spans="1:7">
@@ -4667,16 +4674,16 @@
         <v>103</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E144" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" customFormat="1" spans="1:5">
@@ -4801,7 +4808,7 @@
       </c>
       <c r="D151" s="3"/>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="152" customFormat="1" spans="1:7">
@@ -4816,13 +4823,13 @@
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F152" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G152" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" customFormat="1" spans="1:7">
@@ -4837,13 +4844,13 @@
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F153" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" customFormat="1" spans="1:5">
@@ -4854,11 +4861,11 @@
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" customFormat="1" spans="1:6">
@@ -4872,11 +4879,11 @@
         <v>86</v>
       </c>
       <c r="D155" s="3"/>
-      <c r="E155" s="6" t="s">
-        <v>133</v>
+      <c r="E155" t="s">
+        <v>135</v>
       </c>
       <c r="F155" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156" customFormat="1" spans="1:6">
@@ -4971,7 +4978,7 @@
       </c>
       <c r="D160" s="3"/>
       <c r="E160" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161" customFormat="1" spans="1:7">
@@ -4986,13 +4993,13 @@
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F161" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" customFormat="1" spans="1:7">
@@ -5007,13 +5014,13 @@
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F162" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" customFormat="1" spans="1:5">
@@ -5024,11 +5031,11 @@
         <v>22</v>
       </c>
       <c r="C163" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" customFormat="1" spans="4:7">
@@ -5058,7 +5065,7 @@
       </c>
       <c r="D167" s="3"/>
       <c r="F167" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="168" customFormat="1" spans="1:7">
@@ -5072,16 +5079,16 @@
         <v>103</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" customFormat="1" spans="1:7">
@@ -5095,16 +5102,16 @@
         <v>103</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E169" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="170" customFormat="1" spans="1:5">
@@ -5229,7 +5236,7 @@
       </c>
       <c r="D176" s="3"/>
       <c r="E176" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" customFormat="1" spans="1:7">
@@ -5244,13 +5251,13 @@
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F177" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" customFormat="1" spans="1:7">
@@ -5265,13 +5272,13 @@
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F178" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="179" customFormat="1" spans="1:5">
@@ -5282,11 +5289,11 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" customFormat="1" spans="1:6">
@@ -5300,11 +5307,11 @@
         <v>86</v>
       </c>
       <c r="D180" s="3"/>
-      <c r="E180" s="6" t="s">
-        <v>133</v>
+      <c r="E180" t="s">
+        <v>135</v>
       </c>
       <c r="F180" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="181" customFormat="1" spans="1:6">
@@ -5399,7 +5406,7 @@
       </c>
       <c r="D185" s="3"/>
       <c r="E185" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" customFormat="1" spans="1:7">
@@ -5414,13 +5421,13 @@
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F186" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" customFormat="1" spans="1:7">
@@ -5435,13 +5442,13 @@
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F187" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G187" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="188" customFormat="1" spans="1:5">
@@ -5452,11 +5459,11 @@
         <v>22</v>
       </c>
       <c r="C188" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189" customFormat="1" spans="1:6">
@@ -5470,11 +5477,11 @@
         <v>86</v>
       </c>
       <c r="D189" s="3"/>
-      <c r="E189" s="6" t="s">
-        <v>133</v>
+      <c r="E189" t="s">
+        <v>135</v>
       </c>
       <c r="F189" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" customFormat="1" spans="1:6">
@@ -5569,7 +5576,7 @@
         <v>83</v>
       </c>
       <c r="E194" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5583,13 +5590,13 @@
         <v>103</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F195" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5603,13 +5610,13 @@
         <v>103</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F196" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5620,10 +5627,10 @@
         <v>31</v>
       </c>
       <c r="C197" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E197" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="7:7">
@@ -5647,7 +5654,7 @@
       </c>
       <c r="D200" s="3"/>
       <c r="F200" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="201" customFormat="1" spans="1:7">
@@ -5661,16 +5668,16 @@
         <v>103</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202" customFormat="1" spans="1:7">
@@ -5684,16 +5691,16 @@
         <v>103</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E202" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" customFormat="1" spans="1:5">
@@ -5737,11 +5744,11 @@
         <v>86</v>
       </c>
       <c r="D205" s="3"/>
-      <c r="E205" s="6" t="s">
-        <v>133</v>
+      <c r="E205" t="s">
+        <v>135</v>
       </c>
       <c r="F205" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" customFormat="1" spans="1:6">
@@ -5836,7 +5843,7 @@
       </c>
       <c r="D210" s="3"/>
       <c r="E210" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="211" customFormat="1" spans="1:7">
@@ -5851,13 +5858,13 @@
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F211" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="212" customFormat="1" spans="1:5">
@@ -5868,11 +5875,11 @@
         <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="213" customFormat="1" spans="3:7">
@@ -5902,7 +5909,7 @@
         <v>82</v>
       </c>
       <c r="F216" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217" customFormat="1" spans="1:7">
@@ -5916,16 +5923,16 @@
         <v>103</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F217" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="218" customFormat="1" spans="1:7">
@@ -5939,16 +5946,16 @@
         <v>103</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E218" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F218" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G218" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" customFormat="1" spans="1:5">
@@ -5990,11 +5997,11 @@
       <c r="C221" t="s">
         <v>86</v>
       </c>
-      <c r="E221" s="6" t="s">
-        <v>133</v>
+      <c r="E221" t="s">
+        <v>135</v>
       </c>
       <c r="F221" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6089,7 +6096,7 @@
       </c>
       <c r="D226" s="3"/>
       <c r="E226" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" customFormat="1" spans="1:7">
@@ -6104,13 +6111,13 @@
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F227" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="228" customFormat="1" spans="1:7">
@@ -6125,13 +6132,13 @@
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F228" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="229" customFormat="1" spans="1:5">
@@ -6142,11 +6149,11 @@
         <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="231" customFormat="1" spans="3:7">
@@ -6173,7 +6180,7 @@
       </c>
       <c r="D233" s="3"/>
       <c r="F233" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="234" customFormat="1" spans="1:7">
@@ -6187,16 +6194,16 @@
         <v>103</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="235" customFormat="1" spans="1:7">
@@ -6210,16 +6217,16 @@
         <v>103</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E235" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="236" customFormat="1" spans="1:5">
@@ -6263,11 +6270,11 @@
         <v>86</v>
       </c>
       <c r="D238" s="3"/>
-      <c r="E238" s="6" t="s">
-        <v>133</v>
+      <c r="E238" t="s">
+        <v>135</v>
       </c>
       <c r="F238" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="239" customFormat="1" spans="1:6">
@@ -6362,7 +6369,7 @@
       </c>
       <c r="D243" s="3"/>
       <c r="E243" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="244" customFormat="1" spans="1:7">
@@ -6377,13 +6384,13 @@
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F244" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G244" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="245" customFormat="1" spans="1:7">
@@ -6398,13 +6405,13 @@
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F245" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G245" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="246" customFormat="1" spans="1:5">
@@ -6415,11 +6422,11 @@
         <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="250" customFormat="1" spans="1:6">
@@ -6434,7 +6441,7 @@
       </c>
       <c r="D250" s="3"/>
       <c r="F250" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="251" customFormat="1" spans="1:7">
@@ -6448,16 +6455,16 @@
         <v>103</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="252" customFormat="1" spans="1:7">
@@ -6471,16 +6478,16 @@
         <v>103</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E252" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F252" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G252" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="253" customFormat="1" spans="1:7">
@@ -6494,16 +6501,16 @@
         <v>103</v>
       </c>
       <c r="D253" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E253" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F253" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="254" customFormat="1" spans="1:5">
@@ -6628,7 +6635,7 @@
       </c>
       <c r="D260" s="3"/>
       <c r="E260" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="261" customFormat="1" spans="1:7">
@@ -6643,13 +6650,13 @@
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F261" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G261" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="262" customFormat="1" spans="1:5">
@@ -6660,11 +6667,11 @@
         <v>13</v>
       </c>
       <c r="C262" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="263" customFormat="1" spans="1:6">
@@ -6678,11 +6685,11 @@
         <v>86</v>
       </c>
       <c r="D263" s="3"/>
-      <c r="E263" s="6" t="s">
-        <v>133</v>
+      <c r="E263" t="s">
+        <v>135</v>
       </c>
       <c r="F263" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6776,7 +6783,7 @@
         <v>83</v>
       </c>
       <c r="E268" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="269" customFormat="1" spans="1:7">
@@ -6791,13 +6798,13 @@
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F269" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G269" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="270" customFormat="1" spans="1:5">
@@ -6808,11 +6815,11 @@
         <v>21</v>
       </c>
       <c r="C270" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="271" customFormat="1" spans="3:6">
@@ -6838,7 +6845,7 @@
       </c>
       <c r="D274" s="3"/>
       <c r="F274" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="275" customFormat="1" spans="1:7">
@@ -6852,16 +6859,16 @@
         <v>103</v>
       </c>
       <c r="D275" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F275" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G275" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="276" customFormat="1" spans="1:7">
@@ -6875,16 +6882,16 @@
         <v>103</v>
       </c>
       <c r="D276" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E276" t="s">
-        <v>128</v>
+        <v>159</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="277" customFormat="1" spans="1:7">
@@ -6898,16 +6905,16 @@
         <v>103</v>
       </c>
       <c r="D277" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E277" t="s">
-        <v>128</v>
+        <v>160</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F277" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G277" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="278" customFormat="1" spans="1:7">
@@ -6921,16 +6928,16 @@
         <v>103</v>
       </c>
       <c r="D278" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E278" t="s">
-        <v>128</v>
+        <v>162</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F278" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279" customFormat="1" spans="1:5">
@@ -7055,7 +7062,7 @@
       </c>
       <c r="D285" s="3"/>
       <c r="E285" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="286" customFormat="1" spans="1:7">
@@ -7070,13 +7077,13 @@
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F286" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G286" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="287" customFormat="1" spans="1:5">
@@ -7087,11 +7094,11 @@
         <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="288" customFormat="1" spans="1:6">
@@ -7105,11 +7112,11 @@
         <v>86</v>
       </c>
       <c r="D288" s="3"/>
-      <c r="E288" s="6" t="s">
-        <v>133</v>
+      <c r="E288" t="s">
+        <v>135</v>
       </c>
       <c r="F288" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" customFormat="1" spans="1:6">
@@ -7204,7 +7211,7 @@
       </c>
       <c r="D293" s="3"/>
       <c r="E293" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="294" customFormat="1" spans="1:7">
@@ -7219,13 +7226,13 @@
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F294" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G294" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="295" customFormat="1" spans="1:5">
@@ -7236,11 +7243,11 @@
         <v>22</v>
       </c>
       <c r="C295" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D295" s="3"/>
       <c r="E295" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" customFormat="1" spans="1:6">
@@ -7254,11 +7261,11 @@
         <v>86</v>
       </c>
       <c r="D296" s="3"/>
-      <c r="E296" s="6" t="s">
-        <v>133</v>
+      <c r="E296" t="s">
+        <v>135</v>
       </c>
       <c r="F296" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7353,7 +7360,7 @@
       </c>
       <c r="D301" s="3"/>
       <c r="E301" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="302" customFormat="1" spans="1:7">
@@ -7368,13 +7375,13 @@
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F302" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G302" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="303" customFormat="1" spans="1:5">
@@ -7385,11 +7392,11 @@
         <v>30</v>
       </c>
       <c r="C303" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="304" customFormat="1" spans="3:6">
@@ -7408,7 +7415,7 @@
       </c>
       <c r="D306" s="3"/>
       <c r="F306" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="307" customFormat="1" spans="1:6">
@@ -7422,13 +7429,13 @@
         <v>86</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E307" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="308" customFormat="1" spans="1:7">
@@ -7442,16 +7449,16 @@
         <v>103</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F308" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G308" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="309" customFormat="1" spans="1:7">
@@ -7465,16 +7472,16 @@
         <v>103</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F309" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G309" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="310" customFormat="1" spans="1:7">
@@ -7488,16 +7495,16 @@
         <v>103</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E310" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F310" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G310" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="311" customFormat="1" spans="1:7">
@@ -7511,16 +7518,16 @@
         <v>103</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E311" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="F311" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G311" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="312" customFormat="1" spans="1:5">
@@ -7568,7 +7575,7 @@
         <v>112</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="315" customFormat="1" spans="1:7">
@@ -7645,7 +7652,7 @@
       </c>
       <c r="D318" s="3"/>
       <c r="E318" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" customFormat="1" spans="1:7">
@@ -7660,13 +7667,13 @@
       </c>
       <c r="D319" s="3"/>
       <c r="E319" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F319" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G319" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="320" customFormat="1" spans="1:7">
@@ -7681,13 +7688,13 @@
       </c>
       <c r="D320" s="3"/>
       <c r="E320" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F320" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G320" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="321" customFormat="1" spans="1:5">
@@ -7698,11 +7705,11 @@
         <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="322" customFormat="1" spans="1:6">
@@ -7716,11 +7723,11 @@
         <v>86</v>
       </c>
       <c r="D322" s="3"/>
-      <c r="E322" s="6" t="s">
-        <v>133</v>
+      <c r="E322" t="s">
+        <v>135</v>
       </c>
       <c r="F322" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="323" customFormat="1" spans="1:7">
@@ -7797,7 +7804,7 @@
       </c>
       <c r="D326" s="3"/>
       <c r="E326" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="327" customFormat="1" spans="1:7">
@@ -7812,13 +7819,13 @@
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F327" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G327" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="328" customFormat="1" spans="1:7">
@@ -7833,13 +7840,13 @@
       </c>
       <c r="D328" s="3"/>
       <c r="E328" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F328" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G328" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="329" customFormat="1" spans="1:5">
@@ -7850,11 +7857,11 @@
         <v>24</v>
       </c>
       <c r="C329" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="330" customFormat="1" spans="1:6">
@@ -7868,11 +7875,11 @@
         <v>86</v>
       </c>
       <c r="D330" s="3"/>
-      <c r="E330" s="6" t="s">
-        <v>133</v>
+      <c r="E330" t="s">
+        <v>135</v>
       </c>
       <c r="F330" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="331" customFormat="1" spans="1:7">
@@ -7949,7 +7956,7 @@
       </c>
       <c r="D334" s="3"/>
       <c r="E334" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="335" customFormat="1" spans="1:7">
@@ -7964,13 +7971,13 @@
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F335" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G335" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="336" customFormat="1" spans="1:7">
@@ -7985,13 +7992,13 @@
       </c>
       <c r="D336" s="3"/>
       <c r="E336" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F336" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G336" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="337" customFormat="1" spans="1:5">
@@ -8002,11 +8009,11 @@
         <v>32</v>
       </c>
       <c r="C337" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="338" customFormat="1" spans="4:7">
@@ -8342,27 +8349,28 @@
   <sheetPr/>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="40.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="22.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="34.7142857142857" customWidth="1"/>
     <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="33.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="17.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="14.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="53.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="26.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="30.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="20.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="36.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="23.2857142857143" customWidth="1"/>
-    <col min="11" max="11" width="21.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="39.8571428571429" customWidth="1"/>
+    <col min="11" max="11" width="32.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
@@ -8370,53 +8378,53 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8424,422 +8432,422 @@
         <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:9">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" t="s">
         <v>189</v>
-      </c>
-      <c r="H7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:11">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="1:9">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="3:4">
@@ -8848,28 +8856,28 @@
     </row>
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="3:4">
@@ -8962,10 +8970,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -9015,22 +9023,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -9067,16 +9075,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
         <v>230</v>
-      </c>
-      <c r="D1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -9107,10 +9115,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
